--- a/2dgame/docs/基于标准化的贴图集的序列帧动画播放实现.xlsx
+++ b/2dgame/docs/基于标准化的贴图集的序列帧动画播放实现.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmProject\2DGame_py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38269\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C327A1A2-21EF-4857-92DC-ECA80ED2B914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00874A8A-6A6D-495B-BACF-B5BC6AC8F17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="5685" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最后与player类，帧索引函数一起更新</t>
+    <t>最后与帧索引函数一起更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,7 +974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
   <cols>
